--- a/templates/songlist_template.xlsx
+++ b/templates/songlist_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker_backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288968A-73B4-40B5-8BE0-D60B3B7FA934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DCE36-CA69-4A5F-B525-3E44C32E3937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -161,13 +165,13 @@
     <tableColumn id="11" xr3:uid="{BCA49706-478A-42FE-8E0C-586922E5D433}" name="Requester/Dancer"/>
     <tableColumn id="5" xr3:uid="{35BD2714-1796-40DB-8877-5475B850B5AE}" name="Start: Minute"/>
     <tableColumn id="6" xr3:uid="{AC17AB3F-82A5-4AA0-A644-C330DB47F9E0}" name="Start: Second"/>
-    <tableColumn id="7" xr3:uid="{80998A89-9DB7-4863-B63F-EA9A6EAC4B26}" name="Start in Seconds">
-      <calculatedColumnFormula>F2*60+G2</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="8" xr3:uid="{9576EF2E-BBA7-4A3B-8CB2-3A19880745A7}" name="End: Minute"/>
     <tableColumn id="9" xr3:uid="{A528A444-8691-45CF-9C75-5E80A36967D3}" name="End: Seconds"/>
+    <tableColumn id="12" xr3:uid="{3749821D-A102-4BD5-8945-D7D9F5B7D32A}" name="Start in Seconds" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Start: Minute]]*60+Table1[[#This Row],[Start: Second]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="10" xr3:uid="{B2B78805-517A-458E-9E2E-7DC2EE24E374}" name="End in Seconds">
-      <calculatedColumnFormula>I2*60+J2</calculatedColumnFormula>
+      <calculatedColumnFormula>H2*60+I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,11 +454,12 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -480,13 +485,13 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>13</v>
@@ -515,17 +520,17 @@
         <v>45</v>
       </c>
       <c r="H2">
-        <f>F2*60+G2</f>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <f>Table1[[#This Row],[Start: Minute]]*60+Table1[[#This Row],[Start: Second]]</f>
         <v>165</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>28</v>
-      </c>
       <c r="K2">
-        <f>I2*60+J2</f>
+        <f>H2*60+I2</f>
         <v>208</v>
       </c>
     </row>
@@ -552,17 +557,17 @@
         <v>27</v>
       </c>
       <c r="H3">
-        <f>F3*60+G3</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f>Table1[[#This Row],[Start: Minute]]*60+Table1[[#This Row],[Start: Second]]</f>
         <v>27</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
       <c r="K3">
-        <f>I3*60+J3</f>
+        <f>H3*60+I3</f>
         <v>65</v>
       </c>
     </row>

--- a/templates/songlist_template.xlsx
+++ b/templates/songlist_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DCE36-CA69-4A5F-B525-3E44C32E3937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFCE7E-8F7A-44D7-8993-DCCBFB7FA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Songlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>YouTube-URL</t>
   </si>
@@ -96,13 +97,19 @@
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>Start Seconds</t>
+  </si>
+  <si>
+    <t>End Seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +117,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,17 +154,298 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -167,11 +475,35 @@
     <tableColumn id="6" xr3:uid="{AC17AB3F-82A5-4AA0-A644-C330DB47F9E0}" name="Start: Second"/>
     <tableColumn id="8" xr3:uid="{9576EF2E-BBA7-4A3B-8CB2-3A19880745A7}" name="End: Minute"/>
     <tableColumn id="9" xr3:uid="{A528A444-8691-45CF-9C75-5E80A36967D3}" name="End: Seconds"/>
-    <tableColumn id="12" xr3:uid="{3749821D-A102-4BD5-8945-D7D9F5B7D32A}" name="Start in Seconds" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{3749821D-A102-4BD5-8945-D7D9F5B7D32A}" name="Start in Seconds" dataDxfId="16">
       <calculatedColumnFormula>Table1[[#This Row],[Start: Minute]]*60+Table1[[#This Row],[Start: Second]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{B2B78805-517A-458E-9E2E-7DC2EE24E374}" name="End in Seconds">
       <calculatedColumnFormula>H2*60+I2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22BA4C5D-D389-482F-BDED-90548A807F3C}" name="Table2" displayName="Table2" ref="A1:K2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K2" xr:uid="{22BA4C5D-D389-482F-BDED-90548A807F3C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{1BD7ACBF-FD1A-4CF8-85A1-5729CFA085F9}" name="YouTube-URL" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1E4B8639-153C-4E18-B925-0AD432D7ACA5}" name="Artist" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7D4E96B1-5117-43C4-A5C6-7264A9BC12C6}" name="Title" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{5E52BCF3-4DB9-401D-84CE-E5626E4E0FDE}" name="Description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5D63782A-853C-4B31-B818-D61A0465ABAD}" name="Requester/Dancer" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{9DFD0617-DFCD-4457-A1C7-6575C7007A8D}" name="Start: Minute" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C37A9378-2D42-47B4-A296-1E702FE5DE63}" name="Start: Second" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B0E1073D-0D5F-4D56-8A8A-6AC838416288}" name="End: Minute" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{91B19BD2-D70C-4D58-9395-C7E983779D7C}" name="End: Seconds" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A7E9C347-7648-44D2-AACC-14B04DCBAEBB}" name="Start Seconds" dataDxfId="1">
+      <calculatedColumnFormula>Table2[[#This Row],[Start: Minute]]*60+Table2[[#This Row],[Start: Second]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{301BE03F-49F1-47F0-9F71-D2DA56220670}" name="End Seconds" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[End: Minute]]*60+Table2[[#This Row],[End: Seconds]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -441,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,4 +909,89 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BC301A-F7FE-4364-AD51-56FB0D6D09E0}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3">
+        <f>Table2[[#This Row],[Start: Minute]]*60+Table2[[#This Row],[Start: Second]]</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>Table2[[#This Row],[End: Minute]]*60+Table2[[#This Row],[End: Seconds]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/templates/songlist_template.xlsx
+++ b/templates/songlist_template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker_backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Code\rdg_maker_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFCE7E-8F7A-44D7-8993-DCCBFB7FA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578570DA-9C17-4C77-AFCB-62541CA622F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Songlist" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle" sheetId="2" r:id="rId2"/>
+    <sheet name="Temp" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,7 +777,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,8 +791,8 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -912,10 +913,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3512F8-F2DA-4703-9629-12742F5457CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BC301A-F7FE-4364-AD51-56FB0D6D09E0}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
